--- a/data/raw/election/voters-age-sex-education/2023/Ağrı.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Ağrı.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:21:12-17059871684" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="37">
   <si>
     <t>Ağrı</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Tutak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -672,16 +677,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,11 +1020,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1029,48 +1041,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1124,11 +1136,11 @@
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4.8</v>
+      <c r="G6" s="5">
+        <v>3265</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4800</v>
       </c>
       <c r="I6" s="4">
         <v>757</v>
@@ -1142,8 +1154,8 @@
       <c r="L6" s="4">
         <v>69</v>
       </c>
-      <c r="M6" s="5">
-        <v>9.18</v>
+      <c r="M6" s="6">
+        <v>9180</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1163,14 +1175,14 @@
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="4">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4.99</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.2549999999999999</v>
+      <c r="G7" s="5">
+        <v>3078</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4990</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1255</v>
       </c>
       <c r="J7" s="4">
         <v>12</v>
@@ -1181,8 +1193,8 @@
       <c r="L7" s="4">
         <v>19</v>
       </c>
-      <c r="M7" s="5">
-        <v>9.8140000000000001</v>
+      <c r="M7" s="6">
+        <v>9814</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1204,14 +1216,14 @@
       <c r="F8" s="4">
         <v>192</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.569</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.855</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.2509999999999999</v>
+      <c r="G8" s="5">
+        <v>1569</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1855</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2251</v>
       </c>
       <c r="J8" s="4">
         <v>193</v>
@@ -1222,8 +1234,8 @@
       <c r="L8" s="4">
         <v>28</v>
       </c>
-      <c r="M8" s="5">
-        <v>6.4870000000000001</v>
+      <c r="M8" s="6">
+        <v>6487</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1243,14 +1255,14 @@
       <c r="F9" s="4">
         <v>162</v>
       </c>
-      <c r="G9" s="4">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.202</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.7879999999999998</v>
+      <c r="G9" s="5">
+        <v>1326</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1202</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2788</v>
       </c>
       <c r="J9" s="4">
         <v>226</v>
@@ -1261,8 +1273,8 @@
       <c r="L9" s="4">
         <v>52</v>
       </c>
-      <c r="M9" s="5">
-        <v>7</v>
+      <c r="M9" s="6">
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1287,11 +1299,11 @@
       <c r="G10" s="4">
         <v>632</v>
       </c>
-      <c r="H10" s="4">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2.1120000000000001</v>
+      <c r="H10" s="5">
+        <v>1527</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2112</v>
       </c>
       <c r="J10" s="4">
         <v>406</v>
@@ -1302,8 +1314,8 @@
       <c r="L10" s="4">
         <v>53</v>
       </c>
-      <c r="M10" s="5">
-        <v>6.1070000000000002</v>
+      <c r="M10" s="6">
+        <v>6107</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,8 +1341,8 @@
       <c r="H11" s="4">
         <v>943</v>
       </c>
-      <c r="I11" s="4">
-        <v>1.5389999999999999</v>
+      <c r="I11" s="5">
+        <v>1539</v>
       </c>
       <c r="J11" s="4">
         <v>285</v>
@@ -1341,8 +1353,8 @@
       <c r="L11" s="4">
         <v>118</v>
       </c>
-      <c r="M11" s="5">
-        <v>5.7380000000000004</v>
+      <c r="M11" s="6">
+        <v>5738</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1367,11 +1379,11 @@
       <c r="G12" s="4">
         <v>395</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.1870000000000001</v>
+      <c r="H12" s="5">
+        <v>1418</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1187</v>
       </c>
       <c r="J12" s="4">
         <v>251</v>
@@ -1382,8 +1394,8 @@
       <c r="L12" s="4">
         <v>42</v>
       </c>
-      <c r="M12" s="5">
-        <v>4.9749999999999996</v>
+      <c r="M12" s="6">
+        <v>4975</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1397,8 +1409,8 @@
       <c r="D13" s="4">
         <v>524</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.25</v>
+      <c r="E13" s="5">
+        <v>1250</v>
       </c>
       <c r="F13" s="4">
         <v>479</v>
@@ -1421,8 +1433,8 @@
       <c r="L13" s="4">
         <v>45</v>
       </c>
-      <c r="M13" s="5">
-        <v>4.4359999999999999</v>
+      <c r="M13" s="6">
+        <v>4436</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1447,8 +1459,8 @@
       <c r="G14" s="4">
         <v>718</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.466</v>
+      <c r="H14" s="5">
+        <v>1466</v>
       </c>
       <c r="I14" s="4">
         <v>764</v>
@@ -1462,8 +1474,8 @@
       <c r="L14" s="4">
         <v>27</v>
       </c>
-      <c r="M14" s="5">
-        <v>4.8440000000000003</v>
+      <c r="M14" s="6">
+        <v>4844</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1477,8 +1489,8 @@
       <c r="D15" s="4">
         <v>488</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.546</v>
+      <c r="E15" s="5">
+        <v>1546</v>
       </c>
       <c r="F15" s="4">
         <v>415</v>
@@ -1501,8 +1513,8 @@
       <c r="L15" s="4">
         <v>44</v>
       </c>
-      <c r="M15" s="5">
-        <v>4.444</v>
+      <c r="M15" s="6">
+        <v>4444</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1527,8 +1539,8 @@
       <c r="G16" s="4">
         <v>538</v>
       </c>
-      <c r="H16" s="4">
-        <v>1.0449999999999999</v>
+      <c r="H16" s="5">
+        <v>1045</v>
       </c>
       <c r="I16" s="4">
         <v>499</v>
@@ -1542,8 +1554,8 @@
       <c r="L16" s="4">
         <v>16</v>
       </c>
-      <c r="M16" s="5">
-        <v>3.5059999999999998</v>
+      <c r="M16" s="6">
+        <v>3506</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1557,8 +1569,8 @@
       <c r="D17" s="4">
         <v>380</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.2050000000000001</v>
+      <c r="E17" s="5">
+        <v>1205</v>
       </c>
       <c r="F17" s="4">
         <v>277</v>
@@ -1581,8 +1593,8 @@
       <c r="L17" s="4">
         <v>30</v>
       </c>
-      <c r="M17" s="5">
-        <v>3.2170000000000001</v>
+      <c r="M17" s="6">
+        <v>3217</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1622,8 +1634,8 @@
       <c r="L18" s="4">
         <v>17</v>
       </c>
-      <c r="M18" s="5">
-        <v>2.9670000000000001</v>
+      <c r="M18" s="6">
+        <v>2967</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,8 +1673,8 @@
       <c r="L19" s="4">
         <v>36</v>
       </c>
-      <c r="M19" s="5">
-        <v>2.6419999999999999</v>
+      <c r="M19" s="6">
+        <v>2642</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,8 +1714,8 @@
       <c r="L20" s="4">
         <v>10</v>
       </c>
-      <c r="M20" s="5">
-        <v>2.427</v>
+      <c r="M20" s="6">
+        <v>2427</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,8 +1753,8 @@
       <c r="L21" s="4">
         <v>31</v>
       </c>
-      <c r="M21" s="5">
-        <v>2.0139999999999998</v>
+      <c r="M21" s="6">
+        <v>2014</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,8 +1794,8 @@
       <c r="L22" s="4">
         <v>15</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.9259999999999999</v>
+      <c r="M22" s="6">
+        <v>1926</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1821,8 +1833,8 @@
       <c r="L23" s="4">
         <v>51</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.7070000000000001</v>
+      <c r="M23" s="6">
+        <v>1707</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1862,8 +1874,8 @@
       <c r="L24" s="4">
         <v>15</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.488</v>
+      <c r="M24" s="6">
+        <v>1488</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,8 +1913,8 @@
       <c r="L25" s="4">
         <v>51</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.5109999999999999</v>
+      <c r="M25" s="6">
+        <v>1511</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,7 +1954,7 @@
       <c r="L26" s="4">
         <v>10</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>827</v>
       </c>
     </row>
@@ -1981,8 +1993,8 @@
       <c r="L27" s="4">
         <v>45</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.0669999999999999</v>
+      <c r="M27" s="6">
+        <v>1067</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,8 +2034,8 @@
       <c r="L28" s="4">
         <v>36</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.056</v>
+      <c r="M28" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2031,8 +2043,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.0429999999999999</v>
+      <c r="C29" s="5">
+        <v>1043</v>
       </c>
       <c r="D29" s="4">
         <v>166</v>
@@ -2061,54 +2073,54 @@
       <c r="L29" s="4">
         <v>88</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.458</v>
+      <c r="M29" s="6">
+        <v>1458</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>5.7969999999999997</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5.9139999999999997</v>
-      </c>
-      <c r="E30" s="5">
-        <v>13.38</v>
-      </c>
-      <c r="F30" s="5">
-        <v>8.0150000000000006</v>
-      </c>
-      <c r="G30" s="5">
-        <v>15.069000000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <v>24.274000000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <v>15.289</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1.802</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>5797</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5914</v>
+      </c>
+      <c r="E30" s="6">
+        <v>13380</v>
+      </c>
+      <c r="F30" s="6">
+        <v>8015</v>
+      </c>
+      <c r="G30" s="6">
+        <v>15069</v>
+      </c>
+      <c r="H30" s="6">
+        <v>24274</v>
+      </c>
+      <c r="I30" s="6">
+        <v>15289</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1802</v>
+      </c>
+      <c r="K30" s="7">
         <v>350</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>948</v>
       </c>
-      <c r="M30" s="5">
-        <v>90.837999999999994</v>
+      <c r="M30" s="6">
+        <v>90838</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2162,11 +2174,11 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.0489999999999999</v>
+      <c r="G32" s="5">
+        <v>1634</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1049</v>
       </c>
       <c r="I32" s="4">
         <v>138</v>
@@ -2180,8 +2192,8 @@
       <c r="L32" s="4">
         <v>23</v>
       </c>
-      <c r="M32" s="5">
-        <v>3.0990000000000002</v>
+      <c r="M32" s="6">
+        <v>3099</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2201,11 +2213,11 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1.2030000000000001</v>
+      <c r="G33" s="5">
+        <v>1080</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1203</v>
       </c>
       <c r="I33" s="4">
         <v>297</v>
@@ -2219,8 +2231,8 @@
       <c r="L33" s="4">
         <v>7</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.9129999999999998</v>
+      <c r="M33" s="6">
+        <v>2913</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2260,8 +2272,8 @@
       <c r="L34" s="4">
         <v>6</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.7889999999999999</v>
+      <c r="M34" s="6">
+        <v>1789</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2299,8 +2311,8 @@
       <c r="L35" s="4">
         <v>11</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.5529999999999999</v>
+      <c r="M35" s="6">
+        <v>1553</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2340,8 +2352,8 @@
       <c r="L36" s="4">
         <v>13</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.391</v>
+      <c r="M36" s="6">
+        <v>1391</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2379,8 +2391,8 @@
       <c r="L37" s="4">
         <v>9</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.22</v>
+      <c r="M37" s="6">
+        <v>1220</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2420,7 +2432,7 @@
       <c r="L38" s="4">
         <v>12</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>963</v>
       </c>
     </row>
@@ -2459,7 +2471,7 @@
       <c r="L39" s="4">
         <v>7</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>820</v>
       </c>
     </row>
@@ -2500,8 +2512,8 @@
       <c r="L40" s="4">
         <v>10</v>
       </c>
-      <c r="M40" s="5">
-        <v>1.0609999999999999</v>
+      <c r="M40" s="6">
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2539,8 +2551,8 @@
       <c r="L41" s="4">
         <v>12</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.012</v>
+      <c r="M41" s="6">
+        <v>1012</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2580,7 +2592,7 @@
       <c r="L42" s="4">
         <v>12</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>834</v>
       </c>
     </row>
@@ -2619,7 +2631,7 @@
       <c r="L43" s="4">
         <v>5</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>722</v>
       </c>
     </row>
@@ -2660,7 +2672,7 @@
       <c r="L44" s="4">
         <v>6</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>731</v>
       </c>
     </row>
@@ -2699,7 +2711,7 @@
       <c r="L45" s="4">
         <v>5</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>686</v>
       </c>
     </row>
@@ -2740,7 +2752,7 @@
       <c r="L46" s="4">
         <v>4</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>651</v>
       </c>
     </row>
@@ -2779,7 +2791,7 @@
       <c r="L47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>526</v>
       </c>
     </row>
@@ -2820,7 +2832,7 @@
       <c r="L48" s="4">
         <v>1</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>500</v>
       </c>
     </row>
@@ -2859,7 +2871,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>430</v>
       </c>
     </row>
@@ -2900,7 +2912,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>400</v>
       </c>
     </row>
@@ -2939,7 +2951,7 @@
       <c r="L51" s="4">
         <v>4</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>435</v>
       </c>
     </row>
@@ -2980,7 +2992,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>243</v>
       </c>
     </row>
@@ -3019,7 +3031,7 @@
       <c r="L53" s="4">
         <v>7</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>344</v>
       </c>
     </row>
@@ -3060,7 +3072,7 @@
       <c r="L54" s="4">
         <v>4</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>227</v>
       </c>
     </row>
@@ -3099,7 +3111,7 @@
       <c r="L55" s="4">
         <v>23</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>425</v>
       </c>
     </row>
@@ -3107,46 +3119,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>2.2240000000000002</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="E56" s="5">
-        <v>4.84</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.677</v>
-      </c>
-      <c r="G56" s="5">
-        <v>4.7489999999999997</v>
-      </c>
-      <c r="H56" s="5">
-        <v>4.4189999999999996</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>2224</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2480</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4840</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1677</v>
+      </c>
+      <c r="G56" s="6">
+        <v>4749</v>
+      </c>
+      <c r="H56" s="6">
+        <v>4419</v>
+      </c>
+      <c r="I56" s="6">
+        <v>2167</v>
+      </c>
+      <c r="J56" s="7">
         <v>225</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>6</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>188</v>
       </c>
-      <c r="M56" s="5">
-        <v>22.975000000000001</v>
+      <c r="M56" s="6">
+        <v>22975</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3200,11 +3212,11 @@
       <c r="F58" s="4">
         <v>7</v>
       </c>
-      <c r="G58" s="4">
-        <v>4.109</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.4569999999999999</v>
+      <c r="G58" s="5">
+        <v>4109</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2457</v>
       </c>
       <c r="I58" s="4">
         <v>346</v>
@@ -3218,8 +3230,8 @@
       <c r="L58" s="4">
         <v>70</v>
       </c>
-      <c r="M58" s="5">
-        <v>7.625</v>
+      <c r="M58" s="6">
+        <v>7625</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3239,11 +3251,11 @@
       <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" s="4">
-        <v>3.0249999999999999</v>
-      </c>
-      <c r="H59" s="4">
-        <v>3.25</v>
+      <c r="G59" s="5">
+        <v>3025</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3250</v>
       </c>
       <c r="I59" s="4">
         <v>663</v>
@@ -3257,8 +3269,8 @@
       <c r="L59" s="4">
         <v>10</v>
       </c>
-      <c r="M59" s="5">
-        <v>7.5350000000000001</v>
+      <c r="M59" s="6">
+        <v>7535</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3280,14 +3292,14 @@
       <c r="F60" s="4">
         <v>277</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.91</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1.07</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.1160000000000001</v>
+      <c r="G60" s="5">
+        <v>1910</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1070</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1116</v>
       </c>
       <c r="J60" s="4">
         <v>105</v>
@@ -3298,8 +3310,8 @@
       <c r="L60" s="4">
         <v>20</v>
       </c>
-      <c r="M60" s="5">
-        <v>5.3710000000000004</v>
+      <c r="M60" s="6">
+        <v>5371</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3319,14 +3331,14 @@
       <c r="F61" s="4">
         <v>145</v>
       </c>
-      <c r="G61" s="4">
-        <v>1.216</v>
+      <c r="G61" s="5">
+        <v>1216</v>
       </c>
       <c r="H61" s="4">
         <v>795</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.649</v>
+      <c r="I61" s="5">
+        <v>1649</v>
       </c>
       <c r="J61" s="4">
         <v>126</v>
@@ -3337,8 +3349,8 @@
       <c r="L61" s="4">
         <v>32</v>
       </c>
-      <c r="M61" s="5">
-        <v>5.2919999999999998</v>
+      <c r="M61" s="6">
+        <v>5292</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3363,11 +3375,11 @@
       <c r="G62" s="4">
         <v>609</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.121</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1.1459999999999999</v>
+      <c r="H62" s="5">
+        <v>1121</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1146</v>
       </c>
       <c r="J62" s="4">
         <v>182</v>
@@ -3378,8 +3390,8 @@
       <c r="L62" s="4">
         <v>81</v>
       </c>
-      <c r="M62" s="5">
-        <v>5.0019999999999998</v>
+      <c r="M62" s="6">
+        <v>5002</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3417,8 +3429,8 @@
       <c r="L63" s="4">
         <v>113</v>
       </c>
-      <c r="M63" s="5">
-        <v>4.476</v>
+      <c r="M63" s="6">
+        <v>4476</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3458,8 +3470,8 @@
       <c r="L64" s="4">
         <v>111</v>
       </c>
-      <c r="M64" s="5">
-        <v>3.6949999999999998</v>
+      <c r="M64" s="6">
+        <v>3695</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3497,8 +3509,8 @@
       <c r="L65" s="4">
         <v>55</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.1269999999999998</v>
+      <c r="M65" s="6">
+        <v>3127</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,8 +3526,8 @@
       <c r="D66" s="4">
         <v>154</v>
       </c>
-      <c r="E66" s="4">
-        <v>1.2649999999999999</v>
+      <c r="E66" s="5">
+        <v>1265</v>
       </c>
       <c r="F66" s="4">
         <v>393</v>
@@ -3538,8 +3550,8 @@
       <c r="L66" s="4">
         <v>61</v>
       </c>
-      <c r="M66" s="5">
-        <v>3.4430000000000001</v>
+      <c r="M66" s="6">
+        <v>3443</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3553,8 +3565,8 @@
       <c r="D67" s="4">
         <v>467</v>
       </c>
-      <c r="E67" s="4">
-        <v>1.19</v>
+      <c r="E67" s="5">
+        <v>1190</v>
       </c>
       <c r="F67" s="4">
         <v>160</v>
@@ -3577,8 +3589,8 @@
       <c r="L67" s="4">
         <v>60</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.1280000000000001</v>
+      <c r="M67" s="6">
+        <v>3128</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3594,8 +3606,8 @@
       <c r="D68" s="4">
         <v>104</v>
       </c>
-      <c r="E68" s="4">
-        <v>1.06</v>
+      <c r="E68" s="5">
+        <v>1060</v>
       </c>
       <c r="F68" s="4">
         <v>301</v>
@@ -3618,8 +3630,8 @@
       <c r="L68" s="4">
         <v>51</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.6440000000000001</v>
+      <c r="M68" s="6">
+        <v>2644</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3657,8 +3669,8 @@
       <c r="L69" s="4">
         <v>56</v>
       </c>
-      <c r="M69" s="5">
-        <v>2.423</v>
+      <c r="M69" s="6">
+        <v>2423</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3698,8 +3710,8 @@
       <c r="L70" s="4">
         <v>32</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.9650000000000001</v>
+      <c r="M70" s="6">
+        <v>1965</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3737,8 +3749,8 @@
       <c r="L71" s="4">
         <v>43</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.6080000000000001</v>
+      <c r="M71" s="6">
+        <v>1608</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3778,8 +3790,8 @@
       <c r="L72" s="4">
         <v>24</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.8109999999999999</v>
+      <c r="M72" s="6">
+        <v>1811</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3817,8 +3829,8 @@
       <c r="L73" s="4">
         <v>43</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.7370000000000001</v>
+      <c r="M73" s="6">
+        <v>1737</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3858,8 +3870,8 @@
       <c r="L74" s="4">
         <v>18</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.5109999999999999</v>
+      <c r="M74" s="6">
+        <v>1511</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3897,8 +3909,8 @@
       <c r="L75" s="4">
         <v>37</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.5629999999999999</v>
+      <c r="M75" s="6">
+        <v>1563</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3938,8 +3950,8 @@
       <c r="L76" s="4">
         <v>19</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.175</v>
+      <c r="M76" s="6">
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,8 +3989,8 @@
       <c r="L77" s="4">
         <v>46</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.3460000000000001</v>
+      <c r="M77" s="6">
+        <v>1346</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4018,7 +4030,7 @@
       <c r="L78" s="4">
         <v>12</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>746</v>
       </c>
     </row>
@@ -4057,7 +4069,7 @@
       <c r="L79" s="4">
         <v>48</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>974</v>
       </c>
     </row>
@@ -4098,7 +4110,7 @@
       <c r="L80" s="4">
         <v>28</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>878</v>
       </c>
     </row>
@@ -4137,54 +4149,54 @@
       <c r="L81" s="4">
         <v>89</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M81" s="6">
+        <v>1289</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>6.5090000000000003</v>
-      </c>
-      <c r="D82" s="5">
-        <v>6.8250000000000002</v>
-      </c>
-      <c r="E82" s="5">
-        <v>14.26</v>
-      </c>
-      <c r="F82" s="5">
-        <v>4.8559999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>14.095000000000001</v>
-      </c>
-      <c r="H82" s="5">
-        <v>14.278</v>
-      </c>
-      <c r="I82" s="5">
-        <v>7.5949999999999998</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>6509</v>
+      </c>
+      <c r="D82" s="6">
+        <v>6825</v>
+      </c>
+      <c r="E82" s="6">
+        <v>14260</v>
+      </c>
+      <c r="F82" s="6">
+        <v>4856</v>
+      </c>
+      <c r="G82" s="6">
+        <v>14095</v>
+      </c>
+      <c r="H82" s="6">
+        <v>14278</v>
+      </c>
+      <c r="I82" s="6">
+        <v>7595</v>
+      </c>
+      <c r="J82" s="7">
         <v>770</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>17</v>
       </c>
-      <c r="L82" s="5">
-        <v>1.159</v>
-      </c>
-      <c r="M82" s="5">
-        <v>70.364000000000004</v>
+      <c r="L82" s="6">
+        <v>1159</v>
+      </c>
+      <c r="M82" s="6">
+        <v>70364</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4256,8 +4268,8 @@
       <c r="L84" s="4">
         <v>22</v>
       </c>
-      <c r="M84" s="5">
-        <v>2.016</v>
+      <c r="M84" s="6">
+        <v>2016</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4295,8 +4307,8 @@
       <c r="L85" s="4">
         <v>12</v>
       </c>
-      <c r="M85" s="5">
-        <v>2.1819999999999999</v>
+      <c r="M85" s="6">
+        <v>2182</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4336,8 +4348,8 @@
       <c r="L86" s="4">
         <v>15</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.262</v>
+      <c r="M86" s="6">
+        <v>1262</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4375,8 +4387,8 @@
       <c r="L87" s="4">
         <v>10</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.2450000000000001</v>
+      <c r="M87" s="6">
+        <v>1245</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,8 +4428,8 @@
       <c r="L88" s="4">
         <v>28</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M88" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4455,8 +4467,8 @@
       <c r="L89" s="4">
         <v>20</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M89" s="6">
+        <v>1001</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4496,7 +4508,7 @@
       <c r="L90" s="4">
         <v>33</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="7">
         <v>858</v>
       </c>
     </row>
@@ -4535,7 +4547,7 @@
       <c r="L91" s="4">
         <v>20</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="7">
         <v>725</v>
       </c>
     </row>
@@ -4576,7 +4588,7 @@
       <c r="L92" s="4">
         <v>32</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="7">
         <v>990</v>
       </c>
     </row>
@@ -4615,7 +4627,7 @@
       <c r="L93" s="4">
         <v>22</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="7">
         <v>912</v>
       </c>
     </row>
@@ -4656,7 +4668,7 @@
       <c r="L94" s="4">
         <v>24</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>696</v>
       </c>
     </row>
@@ -4695,7 +4707,7 @@
       <c r="L95" s="4">
         <v>19</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>726</v>
       </c>
     </row>
@@ -4736,7 +4748,7 @@
       <c r="L96" s="4">
         <v>22</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>686</v>
       </c>
     </row>
@@ -4775,7 +4787,7 @@
       <c r="L97" s="4">
         <v>12</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>610</v>
       </c>
     </row>
@@ -4816,7 +4828,7 @@
       <c r="L98" s="4">
         <v>16</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>642</v>
       </c>
     </row>
@@ -4855,7 +4867,7 @@
       <c r="L99" s="4">
         <v>19</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>608</v>
       </c>
     </row>
@@ -4896,7 +4908,7 @@
       <c r="L100" s="4">
         <v>12</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>510</v>
       </c>
     </row>
@@ -4935,7 +4947,7 @@
       <c r="L101" s="4">
         <v>24</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>530</v>
       </c>
     </row>
@@ -4976,7 +4988,7 @@
       <c r="L102" s="4">
         <v>14</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>372</v>
       </c>
     </row>
@@ -5015,7 +5027,7 @@
       <c r="L103" s="4">
         <v>18</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>462</v>
       </c>
     </row>
@@ -5056,7 +5068,7 @@
       <c r="L104" s="4">
         <v>10</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>276</v>
       </c>
     </row>
@@ -5095,7 +5107,7 @@
       <c r="L105" s="4">
         <v>18</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>330</v>
       </c>
     </row>
@@ -5136,7 +5148,7 @@
       <c r="L106" s="4">
         <v>11</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>369</v>
       </c>
     </row>
@@ -5175,7 +5187,7 @@
       <c r="L107" s="4">
         <v>23</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>466</v>
       </c>
     </row>
@@ -5183,46 +5195,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="E108" s="5">
-        <v>3.7320000000000002</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.929</v>
-      </c>
-      <c r="G108" s="5">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="H108" s="5">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.756</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>1674</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1670</v>
+      </c>
+      <c r="E108" s="6">
+        <v>3732</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1929</v>
+      </c>
+      <c r="G108" s="6">
+        <v>4108</v>
+      </c>
+      <c r="H108" s="6">
+        <v>4001</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1756</v>
+      </c>
+      <c r="J108" s="7">
         <v>200</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>10</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>456</v>
       </c>
-      <c r="M108" s="5">
-        <v>19.536000000000001</v>
+      <c r="M108" s="6">
+        <v>19536</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5294,8 +5306,8 @@
       <c r="L110" s="4">
         <v>6</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.32</v>
+      <c r="M110" s="6">
+        <v>1320</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5333,8 +5345,8 @@
       <c r="L111" s="4">
         <v>6</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.139</v>
+      <c r="M111" s="6">
+        <v>1139</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5374,7 +5386,7 @@
       <c r="L112" s="4">
         <v>7</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>731</v>
       </c>
     </row>
@@ -5413,7 +5425,7 @@
       <c r="L113" s="4">
         <v>3</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>513</v>
       </c>
     </row>
@@ -5454,7 +5466,7 @@
       <c r="L114" s="4">
         <v>10</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>478</v>
       </c>
     </row>
@@ -5493,7 +5505,7 @@
       <c r="L115" s="4">
         <v>11</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>399</v>
       </c>
     </row>
@@ -5534,7 +5546,7 @@
       <c r="L116" s="4">
         <v>11</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>378</v>
       </c>
     </row>
@@ -5573,7 +5585,7 @@
       <c r="L117" s="4">
         <v>11</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>350</v>
       </c>
     </row>
@@ -5614,7 +5626,7 @@
       <c r="L118" s="4">
         <v>4</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>409</v>
       </c>
     </row>
@@ -5653,7 +5665,7 @@
       <c r="L119" s="4">
         <v>13</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>407</v>
       </c>
     </row>
@@ -5694,7 +5706,7 @@
       <c r="L120" s="4">
         <v>3</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>350</v>
       </c>
     </row>
@@ -5733,7 +5745,7 @@
       <c r="L121" s="4">
         <v>5</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>319</v>
       </c>
     </row>
@@ -5774,7 +5786,7 @@
       <c r="L122" s="4">
         <v>2</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>287</v>
       </c>
     </row>
@@ -5813,7 +5825,7 @@
       <c r="L123" s="4">
         <v>6</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>298</v>
       </c>
     </row>
@@ -5854,7 +5866,7 @@
       <c r="L124" s="4">
         <v>1</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>290</v>
       </c>
     </row>
@@ -5893,7 +5905,7 @@
       <c r="L125" s="4">
         <v>1</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>234</v>
       </c>
     </row>
@@ -5934,7 +5946,7 @@
       <c r="L126" s="4">
         <v>1</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>226</v>
       </c>
     </row>
@@ -5973,7 +5985,7 @@
       <c r="L127" s="4">
         <v>2</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>191</v>
       </c>
     </row>
@@ -6014,7 +6026,7 @@
       <c r="L128" s="4">
         <v>4</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>200</v>
       </c>
     </row>
@@ -6053,7 +6065,7 @@
       <c r="L129" s="4">
         <v>7</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>205</v>
       </c>
     </row>
@@ -6094,7 +6106,7 @@
       <c r="L130" s="4">
         <v>4</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>120</v>
       </c>
     </row>
@@ -6133,7 +6145,7 @@
       <c r="L131" s="4">
         <v>6</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>149</v>
       </c>
     </row>
@@ -6174,7 +6186,7 @@
       <c r="L132" s="4">
         <v>3</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>133</v>
       </c>
     </row>
@@ -6213,7 +6225,7 @@
       <c r="L133" s="4">
         <v>14</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>218</v>
       </c>
     </row>
@@ -6221,46 +6233,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7">
         <v>906</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="7">
         <v>915</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>1608</v>
+      </c>
+      <c r="F134" s="7">
         <v>765</v>
       </c>
-      <c r="G134" s="5">
-        <v>2.0289999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2.246</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="G134" s="6">
+        <v>2029</v>
+      </c>
+      <c r="H134" s="6">
+        <v>2246</v>
+      </c>
+      <c r="I134" s="7">
         <v>670</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="7">
         <v>58</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>6</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>141</v>
       </c>
-      <c r="M134" s="5">
-        <v>9.3439999999999994</v>
+      <c r="M134" s="6">
+        <v>9344</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6314,11 +6326,11 @@
       <c r="F136" s="4">
         <v>7</v>
       </c>
-      <c r="G136" s="4">
-        <v>4.78</v>
-      </c>
-      <c r="H136" s="4">
-        <v>2.9950000000000001</v>
+      <c r="G136" s="5">
+        <v>4780</v>
+      </c>
+      <c r="H136" s="5">
+        <v>2995</v>
       </c>
       <c r="I136" s="4">
         <v>407</v>
@@ -6332,8 +6344,8 @@
       <c r="L136" s="4">
         <v>92</v>
       </c>
-      <c r="M136" s="5">
-        <v>9.0109999999999992</v>
+      <c r="M136" s="6">
+        <v>9011</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6353,11 +6365,11 @@
       <c r="F137" s="4">
         <v>2</v>
       </c>
-      <c r="G137" s="4">
-        <v>3.8639999999999999</v>
-      </c>
-      <c r="H137" s="4">
-        <v>2.657</v>
+      <c r="G137" s="5">
+        <v>3864</v>
+      </c>
+      <c r="H137" s="5">
+        <v>2657</v>
       </c>
       <c r="I137" s="4">
         <v>582</v>
@@ -6371,8 +6383,8 @@
       <c r="L137" s="4">
         <v>22</v>
       </c>
-      <c r="M137" s="5">
-        <v>8.2230000000000008</v>
+      <c r="M137" s="6">
+        <v>8223</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6394,14 +6406,14 @@
       <c r="F138" s="4">
         <v>218</v>
       </c>
-      <c r="G138" s="4">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="H138" s="4">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.282</v>
+      <c r="G138" s="5">
+        <v>1939</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1184</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1282</v>
       </c>
       <c r="J138" s="4">
         <v>111</v>
@@ -6412,8 +6424,8 @@
       <c r="L138" s="4">
         <v>18</v>
       </c>
-      <c r="M138" s="5">
-        <v>5.5110000000000001</v>
+      <c r="M138" s="6">
+        <v>5511</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6433,14 +6445,14 @@
       <c r="F139" s="4">
         <v>146</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.05</v>
+      <c r="G139" s="5">
+        <v>1050</v>
       </c>
       <c r="H139" s="4">
         <v>476</v>
       </c>
-      <c r="I139" s="4">
-        <v>1.1879999999999999</v>
+      <c r="I139" s="5">
+        <v>1188</v>
       </c>
       <c r="J139" s="4">
         <v>117</v>
@@ -6451,8 +6463,8 @@
       <c r="L139" s="4">
         <v>42</v>
       </c>
-      <c r="M139" s="5">
-        <v>4.6079999999999997</v>
+      <c r="M139" s="6">
+        <v>4608</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6492,8 +6504,8 @@
       <c r="L140" s="4">
         <v>14</v>
       </c>
-      <c r="M140" s="5">
-        <v>4.28</v>
+      <c r="M140" s="6">
+        <v>4280</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6504,8 +6516,8 @@
       <c r="C141" s="4">
         <v>396</v>
       </c>
-      <c r="D141" s="4">
-        <v>1.1779999999999999</v>
+      <c r="D141" s="5">
+        <v>1178</v>
       </c>
       <c r="E141" s="4">
         <v>315</v>
@@ -6531,8 +6543,8 @@
       <c r="L141" s="4">
         <v>60</v>
       </c>
-      <c r="M141" s="5">
-        <v>3.6429999999999998</v>
+      <c r="M141" s="6">
+        <v>3643</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,8 +6584,8 @@
       <c r="L142" s="4">
         <v>24</v>
       </c>
-      <c r="M142" s="5">
-        <v>3.12</v>
+      <c r="M142" s="6">
+        <v>3120</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6611,8 +6623,8 @@
       <c r="L143" s="4">
         <v>32</v>
       </c>
-      <c r="M143" s="5">
-        <v>2.5950000000000002</v>
+      <c r="M143" s="6">
+        <v>2595</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,8 +6664,8 @@
       <c r="L144" s="4">
         <v>16</v>
       </c>
-      <c r="M144" s="5">
-        <v>2.8759999999999999</v>
+      <c r="M144" s="6">
+        <v>2876</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6667,8 +6679,8 @@
       <c r="D145" s="4">
         <v>545</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.024</v>
+      <c r="E145" s="5">
+        <v>1024</v>
       </c>
       <c r="F145" s="4">
         <v>125</v>
@@ -6691,8 +6703,8 @@
       <c r="L145" s="4">
         <v>37</v>
       </c>
-      <c r="M145" s="5">
-        <v>2.6269999999999998</v>
+      <c r="M145" s="6">
+        <v>2627</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6732,8 +6744,8 @@
       <c r="L146" s="4">
         <v>8</v>
       </c>
-      <c r="M146" s="5">
-        <v>2.0030000000000001</v>
+      <c r="M146" s="6">
+        <v>2003</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6771,8 +6783,8 @@
       <c r="L147" s="4">
         <v>19</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.7709999999999999</v>
+      <c r="M147" s="6">
+        <v>1771</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6812,8 +6824,8 @@
       <c r="L148" s="4">
         <v>8</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M148" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6851,8 +6863,8 @@
       <c r="L149" s="4">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.625</v>
+      <c r="M149" s="6">
+        <v>1625</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6892,8 +6904,8 @@
       <c r="L150" s="4">
         <v>5</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.74</v>
+      <c r="M150" s="6">
+        <v>1740</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6931,8 +6943,8 @@
       <c r="L151" s="4">
         <v>15</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.52</v>
+      <c r="M151" s="6">
+        <v>1520</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6972,8 +6984,8 @@
       <c r="L152" s="4">
         <v>6</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.347</v>
+      <c r="M152" s="6">
+        <v>1347</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7011,8 +7023,8 @@
       <c r="L153" s="4">
         <v>11</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.2929999999999999</v>
+      <c r="M153" s="6">
+        <v>1293</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7052,8 +7064,8 @@
       <c r="L154" s="4">
         <v>2</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.083</v>
+      <c r="M154" s="6">
+        <v>1083</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7091,8 +7103,8 @@
       <c r="L155" s="4">
         <v>14</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M155" s="6">
+        <v>1283</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7132,7 +7144,7 @@
       <c r="L156" s="4">
         <v>2</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>593</v>
       </c>
     </row>
@@ -7171,7 +7183,7 @@
       <c r="L157" s="4">
         <v>20</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>909</v>
       </c>
     </row>
@@ -7212,7 +7224,7 @@
       <c r="L158" s="4">
         <v>9</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>639</v>
       </c>
     </row>
@@ -7251,7 +7263,7 @@
       <c r="L159" s="4">
         <v>44</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>994</v>
       </c>
     </row>
@@ -7259,46 +7271,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>5.165</v>
-      </c>
-      <c r="D160" s="5">
-        <v>8.5340000000000007</v>
-      </c>
-      <c r="E160" s="5">
-        <v>12.585000000000001</v>
-      </c>
-      <c r="F160" s="5">
-        <v>4.1829999999999998</v>
-      </c>
-      <c r="G160" s="5">
-        <v>15.673</v>
-      </c>
-      <c r="H160" s="5">
-        <v>11.842000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>6.0460000000000003</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6">
+        <v>5165</v>
+      </c>
+      <c r="D160" s="6">
+        <v>8534</v>
+      </c>
+      <c r="E160" s="6">
+        <v>12585</v>
+      </c>
+      <c r="F160" s="6">
+        <v>4183</v>
+      </c>
+      <c r="G160" s="6">
+        <v>15673</v>
+      </c>
+      <c r="H160" s="6">
+        <v>11842</v>
+      </c>
+      <c r="I160" s="6">
+        <v>6046</v>
+      </c>
+      <c r="J160" s="7">
         <v>636</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>32</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>535</v>
       </c>
-      <c r="M160" s="5">
-        <v>65.230999999999995</v>
+      <c r="M160" s="6">
+        <v>65231</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7370,8 +7382,8 @@
       <c r="L162" s="4">
         <v>9</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M162" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7409,8 +7421,8 @@
       <c r="L163" s="4">
         <v>3</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.355</v>
+      <c r="M163" s="6">
+        <v>1355</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7450,7 +7462,7 @@
       <c r="L164" s="4">
         <v>4</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="7">
         <v>753</v>
       </c>
     </row>
@@ -7489,7 +7501,7 @@
       <c r="L165" s="4">
         <v>2</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="7">
         <v>718</v>
       </c>
     </row>
@@ -7530,7 +7542,7 @@
       <c r="L166" s="4">
         <v>8</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="7">
         <v>635</v>
       </c>
     </row>
@@ -7569,7 +7581,7 @@
       <c r="L167" s="4">
         <v>9</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="7">
         <v>550</v>
       </c>
     </row>
@@ -7610,7 +7622,7 @@
       <c r="L168" s="4">
         <v>11</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="7">
         <v>522</v>
       </c>
     </row>
@@ -7649,7 +7661,7 @@
       <c r="L169" s="4">
         <v>8</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="7">
         <v>486</v>
       </c>
     </row>
@@ -7690,7 +7702,7 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="7">
         <v>599</v>
       </c>
     </row>
@@ -7729,7 +7741,7 @@
       <c r="L171" s="4">
         <v>11</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="7">
         <v>544</v>
       </c>
     </row>
@@ -7770,7 +7782,7 @@
       <c r="L172" s="4">
         <v>5</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="7">
         <v>437</v>
       </c>
     </row>
@@ -7809,7 +7821,7 @@
       <c r="L173" s="4">
         <v>1</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="7">
         <v>366</v>
       </c>
     </row>
@@ -7850,7 +7862,7 @@
       <c r="L174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="7">
         <v>393</v>
       </c>
     </row>
@@ -7889,7 +7901,7 @@
       <c r="L175" s="4">
         <v>1</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="7">
         <v>350</v>
       </c>
     </row>
@@ -7930,7 +7942,7 @@
       <c r="L176" s="4">
         <v>3</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="7">
         <v>319</v>
       </c>
     </row>
@@ -7969,7 +7981,7 @@
       <c r="L177" s="4">
         <v>2</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="7">
         <v>277</v>
       </c>
     </row>
@@ -8010,7 +8022,7 @@
       <c r="L178" s="4">
         <v>2</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="7">
         <v>262</v>
       </c>
     </row>
@@ -8049,7 +8061,7 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="7">
         <v>251</v>
       </c>
     </row>
@@ -8090,7 +8102,7 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="7">
         <v>239</v>
       </c>
     </row>
@@ -8129,7 +8141,7 @@
       <c r="L181" s="4">
         <v>6</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="7">
         <v>199</v>
       </c>
     </row>
@@ -8170,7 +8182,7 @@
       <c r="L182" s="4">
         <v>2</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>137</v>
       </c>
     </row>
@@ -8209,7 +8221,7 @@
       <c r="L183" s="4">
         <v>7</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>178</v>
       </c>
     </row>
@@ -8250,7 +8262,7 @@
       <c r="L184" s="4">
         <v>2</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>173</v>
       </c>
     </row>
@@ -8289,7 +8301,7 @@
       <c r="L185" s="4">
         <v>5</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>275</v>
       </c>
     </row>
@@ -8297,46 +8309,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>797</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="7">
         <v>968</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.1579999999999999</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.4129999999999998</v>
-      </c>
-      <c r="H186" s="5">
-        <v>2.7559999999999998</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.073</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>2158</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1068</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2413</v>
+      </c>
+      <c r="H186" s="6">
+        <v>2756</v>
+      </c>
+      <c r="I186" s="6">
+        <v>1073</v>
+      </c>
+      <c r="J186" s="7">
         <v>111</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="7">
         <v>11</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="7">
         <v>110</v>
       </c>
-      <c r="M186" s="5">
-        <v>11.465</v>
+      <c r="M186" s="6">
+        <v>11465</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8390,8 +8402,8 @@
       <c r="F188" s="4">
         <v>2</v>
       </c>
-      <c r="G188" s="4">
-        <v>1.0660000000000001</v>
+      <c r="G188" s="5">
+        <v>1066</v>
       </c>
       <c r="H188" s="4">
         <v>686</v>
@@ -8408,8 +8420,8 @@
       <c r="L188" s="4">
         <v>20</v>
       </c>
-      <c r="M188" s="5">
-        <v>1.976</v>
+      <c r="M188" s="6">
+        <v>1976</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8447,8 +8459,8 @@
       <c r="L189" s="4">
         <v>4</v>
       </c>
-      <c r="M189" s="5">
-        <v>1.841</v>
+      <c r="M189" s="6">
+        <v>1841</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8488,8 +8500,8 @@
       <c r="L190" s="4">
         <v>3</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.1850000000000001</v>
+      <c r="M190" s="6">
+        <v>1185</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8527,8 +8539,8 @@
       <c r="L191" s="4">
         <v>18</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.012</v>
+      <c r="M191" s="6">
+        <v>1012</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8568,7 +8580,7 @@
       <c r="L192" s="4">
         <v>38</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="7">
         <v>897</v>
       </c>
     </row>
@@ -8607,7 +8619,7 @@
       <c r="L193" s="4">
         <v>35</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="7">
         <v>829</v>
       </c>
     </row>
@@ -8648,7 +8660,7 @@
       <c r="L194" s="4">
         <v>22</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="7">
         <v>721</v>
       </c>
     </row>
@@ -8687,7 +8699,7 @@
       <c r="L195" s="4">
         <v>21</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="7">
         <v>695</v>
       </c>
     </row>
@@ -8728,7 +8740,7 @@
       <c r="L196" s="4">
         <v>14</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="7">
         <v>864</v>
       </c>
     </row>
@@ -8767,7 +8779,7 @@
       <c r="L197" s="4">
         <v>24</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="7">
         <v>796</v>
       </c>
     </row>
@@ -8808,7 +8820,7 @@
       <c r="L198" s="4">
         <v>13</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="7">
         <v>677</v>
       </c>
     </row>
@@ -8847,7 +8859,7 @@
       <c r="L199" s="4">
         <v>15</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="7">
         <v>583</v>
       </c>
     </row>
@@ -8888,7 +8900,7 @@
       <c r="L200" s="4">
         <v>10</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="7">
         <v>555</v>
       </c>
     </row>
@@ -8927,7 +8939,7 @@
       <c r="L201" s="4">
         <v>13</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="7">
         <v>499</v>
       </c>
     </row>
@@ -8968,7 +8980,7 @@
       <c r="L202" s="4">
         <v>4</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="7">
         <v>531</v>
       </c>
     </row>
@@ -9007,7 +9019,7 @@
       <c r="L203" s="4">
         <v>9</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="7">
         <v>423</v>
       </c>
     </row>
@@ -9048,7 +9060,7 @@
       <c r="L204" s="4">
         <v>8</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>443</v>
       </c>
     </row>
@@ -9087,7 +9099,7 @@
       <c r="L205" s="4">
         <v>9</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>415</v>
       </c>
     </row>
@@ -9128,7 +9140,7 @@
       <c r="L206" s="4">
         <v>3</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>359</v>
       </c>
     </row>
@@ -9167,7 +9179,7 @@
       <c r="L207" s="4">
         <v>11</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>427</v>
       </c>
     </row>
@@ -9208,7 +9220,7 @@
       <c r="L208" s="4">
         <v>2</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>231</v>
       </c>
     </row>
@@ -9247,7 +9259,7 @@
       <c r="L209" s="4">
         <v>9</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>292</v>
       </c>
     </row>
@@ -9288,7 +9300,7 @@
       <c r="L210" s="4">
         <v>6</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>298</v>
       </c>
     </row>
@@ -9327,7 +9339,7 @@
       <c r="L211" s="4">
         <v>17</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>382</v>
       </c>
     </row>
@@ -9335,39 +9347,49 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="D212" s="5">
-        <v>1.47</v>
-      </c>
-      <c r="E212" s="5">
-        <v>3.6579999999999999</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.337</v>
-      </c>
-      <c r="G212" s="5">
-        <v>3.6560000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.919</v>
-      </c>
-      <c r="I212" s="5">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="6">
+        <v>1983</v>
+      </c>
+      <c r="D212" s="6">
+        <v>1470</v>
+      </c>
+      <c r="E212" s="6">
+        <v>3658</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1337</v>
+      </c>
+      <c r="G212" s="6">
+        <v>3656</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2919</v>
+      </c>
+      <c r="I212" s="6">
+        <v>1392</v>
+      </c>
+      <c r="J212" s="7">
         <v>186</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="7">
         <v>2</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>328</v>
       </c>
-      <c r="M212" s="5">
-        <v>16.931000000000001</v>
+      <c r="M212" s="6">
+        <v>16931</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
